--- a/tree/master/cloud/src/deployments/MCDeploymentConfig.xlsx
+++ b/tree/master/cloud/src/deployments/MCDeploymentConfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mc\tree\master\cloud\src\deployments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewMatterCenter\tree\master\cloud\src\deployments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="62310" yWindow="0" windowWidth="24270" windowHeight="12270" tabRatio="822" activeTab="1"/>
+    <workbookView xWindow="62316" yWindow="0" windowWidth="24276" windowHeight="12276" tabRatio="822" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="116">
   <si>
     <t>Group_Name</t>
   </si>
@@ -352,142 +352,31 @@
     <t>User4;</t>
   </si>
   <si>
-    <r>
-      <t>https://</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;TENANTNAME&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.sharepoint.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;TENANTNAME&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.sharepoint.com/teams/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;CATALOGNAME&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;TENANTNAME&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-admin.sharepoint.com</t>
-    </r>
-  </si>
-  <si>
-    <t>COMPLETE USER EMAIL ADDRESS e.g. useralias@domain.com or useralias@tenantname.onmicrosoft.com</t>
-  </si>
-  <si>
     <t>Emails; Documents</t>
   </si>
   <si>
-    <t>&lt;ClientName only e.g. Microsoft&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>https://</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;TENANTNAME&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.sharepoint.com/teams/&lt;ClientName&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;ClientName provided in Client_Config Sheet&gt;</t>
-  </si>
-  <si>
     <t>Read Me</t>
   </si>
   <si>
     <t xml:space="preserve">Kindly refer to Deployment Document present in docs folder to learn how to use this file </t>
+  </si>
+  <si>
+    <t>BCBSNC</t>
+  </si>
+  <si>
+    <t>https://bcbsncps.sharepoint.com</t>
+  </si>
+  <si>
+    <t>https://bcbsncps.sharepoint.com/sites/mattercenter</t>
+  </si>
+  <si>
+    <t>cardinal@bcbsncps.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>https://bcbsncps-admin.sharepoint.com/</t>
+  </si>
+  <si>
+    <t>https://bcbsncps.sharepoint.com/sites/AppCatalog</t>
   </si>
 </sst>
 </file>
@@ -530,17 +419,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,10 +472,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,16 +507,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -944,43 +835,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="82.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
     </row>
   </sheetData>
@@ -994,62 +885,62 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="193.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="193.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>107</v>
+      <c r="B1" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>CONCATENATE(B1, "/sites/contentTypeHub")</f>
-        <v>https://&lt;TENANTNAME&gt;.sharepoint.com/sites/contentTypeHub</v>
+        <v>https://bcbsncps.sharepoint.com/sites/contentTypeHub</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>108</v>
+      <c r="B3" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>109</v>
+      <c r="B4" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1060,7 +951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1077,8 +968,12 @@
       <formula1>"Email Only, Document Only, Both"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1086,19 +981,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="88.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1122,11 +1017,11 @@
       <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1136,13 +1031,17 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>110</v>
+      <c r="D3" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1151,23 +1050,23 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
-    <col min="9" max="9" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -1196,7 +1095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1207,13 +1106,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
@@ -1225,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1236,13 +1135,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -1254,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1265,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -1283,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1294,13 +1193,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
@@ -1312,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1323,13 +1222,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -1341,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1352,13 +1251,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
@@ -1370,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1381,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>13</v>
@@ -1399,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1410,13 +1309,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -1428,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1439,13 +1338,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>16</v>
@@ -1457,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1468,13 +1367,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>17</v>
@@ -1486,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1497,13 +1396,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
@@ -1515,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1526,13 +1425,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
@@ -1554,18 +1453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.5" customWidth="1"/>
-    <col min="5" max="5" width="67.375" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" customWidth="1"/>
+    <col min="5" max="5" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1582,152 +1483,157 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14">
+        <v>100001</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="15">
-        <v>100001</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="E2" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1736,32 +1642,32 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="131.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.375" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="131.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -1808,9 +1714,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>72</v>
@@ -1855,9 +1761,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -1902,9 +1808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -1949,9 +1855,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>77</v>
@@ -1996,9 +1902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>79</v>
@@ -2043,9 +1949,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>81</v>
@@ -2090,9 +1996,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>83</v>
@@ -2137,9 +2043,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>85</v>
@@ -2184,9 +2090,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>87</v>
@@ -2231,9 +2137,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>89</v>
@@ -2278,9 +2184,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>91</v>
@@ -2325,9 +2231,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>93</v>
@@ -2372,9 +2278,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>95</v>
@@ -2419,9 +2325,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>97</v>
@@ -2466,9 +2372,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>99</v>

--- a/tree/master/cloud/src/deployments/MCDeploymentConfig.xlsx
+++ b/tree/master/cloud/src/deployments/MCDeploymentConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="62316" yWindow="0" windowWidth="24276" windowHeight="12276" tabRatio="822" activeTab="1"/>
+    <workbookView xWindow="62316" yWindow="0" windowWidth="24276" windowHeight="12276" tabRatio="822" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="137">
   <si>
     <t>Group_Name</t>
   </si>
@@ -43,57 +43,12 @@
     <t>Members</t>
   </si>
   <si>
-    <t>Litigation</t>
-  </si>
-  <si>
     <t>Intellectual Property</t>
   </si>
   <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Patent</t>
-  </si>
-  <si>
-    <t>Trade Secret</t>
-  </si>
-  <si>
-    <t>Trademark</t>
-  </si>
-  <si>
-    <t>Products Liability</t>
-  </si>
-  <si>
-    <t>Medical Device</t>
-  </si>
-  <si>
-    <t>Automotive</t>
-  </si>
-  <si>
-    <t>Pharmaceutical</t>
-  </si>
-  <si>
-    <t>Consumer Products</t>
-  </si>
-  <si>
-    <t>Transactional</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>Franchising</t>
-  </si>
-  <si>
-    <t>Financial Institutions</t>
-  </si>
-  <si>
-    <t>Broker-Dealer</t>
-  </si>
-  <si>
-    <t>Depository Institutions</t>
-  </si>
-  <si>
     <t>CatalogSiteURL</t>
   </si>
   <si>
@@ -364,19 +319,127 @@
     <t>BCBSNC</t>
   </si>
   <si>
+    <t>cardinal@bcbsncps.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>https://bcbsncps.sharepoint.com/sites/AppCatalog</t>
+  </si>
+  <si>
+    <t>https://bcbsncps.sharepoint.com/sites/mattercenter</t>
+  </si>
+  <si>
     <t>https://bcbsncps.sharepoint.com</t>
   </si>
   <si>
-    <t>https://bcbsncps.sharepoint.com/sites/mattercenter</t>
-  </si>
-  <si>
-    <t>cardinal@bcbsncps.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>https://bcbsncps-admin.sharepoint.com/</t>
-  </si>
-  <si>
-    <t>https://bcbsncps.sharepoint.com/sites/AppCatalog</t>
+    <t>https://bcbsncps-admin.sharepoint.com</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Polices &amp; Procedures</t>
+  </si>
+  <si>
+    <t>Reference Materials</t>
+  </si>
+  <si>
+    <t>Corporate Governance</t>
+  </si>
+  <si>
+    <t>ACS Board</t>
+  </si>
+  <si>
+    <t>BCBSNC Board</t>
+  </si>
+  <si>
+    <t>BCBSNC Foundation Board</t>
+  </si>
+  <si>
+    <t>BCBSNC Senior Heath</t>
+  </si>
+  <si>
+    <t>Corium Board</t>
+  </si>
+  <si>
+    <t>Corium II, LLC</t>
+  </si>
+  <si>
+    <t>Mosaic Group Services, LLC Board</t>
+  </si>
+  <si>
+    <t>Mosaic Health Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>Mosaic Health Solutions, LLC</t>
+  </si>
+  <si>
+    <t>Noble Benefit Services, LLC</t>
+  </si>
+  <si>
+    <t>NobleHealth, Inc</t>
+  </si>
+  <si>
+    <t>PARTNERS Board</t>
+  </si>
+  <si>
+    <t>Topaz Shared Services, LLC</t>
+  </si>
+  <si>
+    <t>Corporate Law</t>
+  </si>
+  <si>
+    <t>BCBSA/License</t>
+  </si>
+  <si>
+    <t>Credit Union</t>
+  </si>
+  <si>
+    <t>Finance, Tax, and Business Insurance</t>
+  </si>
+  <si>
+    <t>Financial Audit Letters</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>M &amp; A/Investments</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Records Management</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Vendor Contract</t>
+  </si>
+  <si>
+    <t>VCAN</t>
+  </si>
+  <si>
+    <t>Annual Reports; Articles of Incorporation-Formation-Organization; Bylaws-Operating-LLC Agreement; Minutes‐Consents</t>
+  </si>
+  <si>
+    <t>Blue Cross</t>
+  </si>
+  <si>
+    <t>Document;Email</t>
   </si>
 </sst>
 </file>
@@ -448,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -471,12 +534,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -844,7 +921,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -852,7 +929,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -884,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,69 +974,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>CONCATENATE(B1, "/sites/contentTypeHub")</f>
         <v>https://bcbsncps.sharepoint.com/sites/contentTypeHub</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -971,9 +1048,10 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -981,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,30 +1087,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1047,16 +1125,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H2:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -1068,379 +1146,988 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="I2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="I3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="I4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="I5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="I6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="I8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="I9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I10" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I11" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="I12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="C14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="C15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="5" t="b">
-        <v>0</v>
+      <c r="C16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1453,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,36 +2155,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B2" s="14">
         <v>100001</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1669,90 +2356,90 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="N1" s="11" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I2" s="13">
         <v>43904</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N2" s="10" t="b">
         <v>1</v>
@@ -1763,43 +2450,43 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I3" s="13">
         <v>44270</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -1810,43 +2497,43 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I4" s="13">
         <v>44636</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -1857,43 +2544,43 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I5" s="13">
         <v>45002</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N5" s="10" t="b">
         <v>0</v>
@@ -1904,43 +2591,43 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I6" s="13">
         <v>45368</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N6" s="10" t="b">
         <v>0</v>
@@ -1951,43 +2638,43 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I7" s="13">
         <v>45734</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N7" s="10" t="b">
         <v>0</v>
@@ -1998,43 +2685,43 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I8" s="13">
         <v>46100</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N8" s="10" t="b">
         <v>0</v>
@@ -2045,43 +2732,43 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I9" s="13">
         <v>46466</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N9" s="10" t="b">
         <v>0</v>
@@ -2092,43 +2779,43 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="13">
         <v>46832</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N10" s="10" t="b">
         <v>0</v>
@@ -2139,43 +2826,43 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I11" s="13">
         <v>47198</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N11" s="10" t="b">
         <v>0</v>
@@ -2186,43 +2873,43 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I12" s="13">
         <v>47564</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N12" s="10" t="b">
         <v>0</v>
@@ -2233,43 +2920,43 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I13" s="13">
         <v>47930</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N13" s="10" t="b">
         <v>0</v>
@@ -2280,43 +2967,43 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I14" s="13">
         <v>48296</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N14" s="10" t="b">
         <v>0</v>
@@ -2327,43 +3014,43 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I15" s="13">
         <v>48662</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N15" s="10" t="b">
         <v>0</v>
@@ -2374,43 +3061,43 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I16" s="13">
         <v>49028</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N16" s="10" t="b">
         <v>0</v>
